--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020320-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020320-1.xlsx_with_dialog_acts.xlsx
@@ -1063,12 +1063,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3347,12 +3347,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4989,12 +4989,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6249,12 +6249,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6375,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6585,12 +6585,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7423,12 +7423,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7717,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8179,12 +8179,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8221,12 +8221,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8305,12 +8305,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8683,12 +8683,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9481,12 +9481,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9523,12 +9523,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10573,12 +10573,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10699,12 +10699,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10867,12 +10867,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11203,12 +11203,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11287,12 +11287,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11413,12 +11413,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12001,12 +12001,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12463,12 +12463,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12547,12 +12547,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13135,12 +13135,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14353,12 +14353,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14563,12 +14563,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14731,12 +14731,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14773,12 +14773,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14941,12 +14941,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14983,12 +14983,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15109,12 +15109,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15235,12 +15235,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15403,12 +15403,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15529,12 +15529,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15613,12 +15613,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16159,12 +16159,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16495,12 +16495,12 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17125,12 +17125,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17461,12 +17461,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17587,12 +17587,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17671,12 +17671,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17923,12 +17923,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18301,12 +18301,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18595,12 +18595,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19015,12 +19015,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19435,12 +19435,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19645,12 +19645,12 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19771,12 +19771,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19981,12 +19981,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20107,12 +20107,12 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20191,12 +20191,12 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20905,12 +20905,12 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21157,12 +21157,12 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21199,12 +21199,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21283,12 +21283,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21409,12 +21409,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21451,12 +21451,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21493,12 +21493,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21703,12 +21703,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22081,12 +22081,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22459,12 +22459,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22543,12 +22543,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22627,12 +22627,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22669,12 +22669,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22711,12 +22711,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22963,12 +22963,12 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23383,12 +23383,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24559,12 +24559,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25025,12 +25025,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25823,12 +25823,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27805,12 +27805,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28225,12 +28225,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28309,12 +28309,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29241,12 +29241,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30967,12 +30967,12 @@
       <c r="H726" t="inlineStr"/>
       <c r="I726" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31219,12 +31219,12 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31681,12 +31681,12 @@
       <c r="H743" t="inlineStr"/>
       <c r="I743" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
